--- a/Code/Results/Cases/Case_5_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_228/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9801013299651508</v>
+        <v>1.017506523434188</v>
       </c>
       <c r="D2">
-        <v>1.002036396983333</v>
+        <v>1.02335253314526</v>
       </c>
       <c r="E2">
-        <v>0.9892340999079986</v>
+        <v>1.018887464434443</v>
       </c>
       <c r="F2">
-        <v>0.955868062535743</v>
+        <v>1.015869691325769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035573819636898</v>
+        <v>1.026927994660535</v>
       </c>
       <c r="J2">
-        <v>1.002893944676485</v>
+        <v>1.022720250132159</v>
       </c>
       <c r="K2">
-        <v>1.013467434280263</v>
+        <v>1.026184222918567</v>
       </c>
       <c r="L2">
-        <v>1.000845486790114</v>
+        <v>1.021732345631859</v>
       </c>
       <c r="M2">
-        <v>0.9679784998280141</v>
+        <v>1.018723559631315</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9852711057561157</v>
+        <v>1.018562034851111</v>
       </c>
       <c r="D3">
-        <v>1.005740881507757</v>
+        <v>1.024119870061698</v>
       </c>
       <c r="E3">
-        <v>0.993386818635837</v>
+        <v>1.019785563326101</v>
       </c>
       <c r="F3">
-        <v>0.9638591585511074</v>
+        <v>1.017568849712941</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036660687201579</v>
+        <v>1.027077371256606</v>
       </c>
       <c r="J3">
-        <v>1.00617151064371</v>
+        <v>1.023411121460803</v>
       </c>
       <c r="K3">
-        <v>1.016300829916325</v>
+        <v>1.026758528330028</v>
       </c>
       <c r="L3">
-        <v>1.004105021579176</v>
+        <v>1.022436097497875</v>
       </c>
       <c r="M3">
-        <v>0.974976351953979</v>
+        <v>1.020225499997718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9885334047243622</v>
+        <v>1.019244696683664</v>
       </c>
       <c r="D4">
-        <v>1.008080029830721</v>
+        <v>1.024615847283845</v>
       </c>
       <c r="E4">
-        <v>0.9960136530910076</v>
+        <v>1.020366789292499</v>
       </c>
       <c r="F4">
-        <v>0.96888601256295</v>
+        <v>1.018667787984145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037334182954321</v>
+        <v>1.027172427672561</v>
       </c>
       <c r="J4">
-        <v>1.008235045919799</v>
+        <v>1.023857311615084</v>
       </c>
       <c r="K4">
-        <v>1.018081904443079</v>
+        <v>1.027128946393864</v>
       </c>
       <c r="L4">
-        <v>1.006160429111286</v>
+        <v>1.022890942459054</v>
       </c>
       <c r="M4">
-        <v>0.9793750506224297</v>
+        <v>1.021196389025617</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9898859238480042</v>
+        <v>1.019531611501204</v>
       </c>
       <c r="D5">
-        <v>1.00905009962099</v>
+        <v>1.024824226797496</v>
       </c>
       <c r="E5">
-        <v>0.9971041803125741</v>
+        <v>1.020611160259838</v>
       </c>
       <c r="F5">
-        <v>0.9709668106132449</v>
+        <v>1.019129662561586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037610395921609</v>
+        <v>1.027212006320759</v>
       </c>
       <c r="J5">
-        <v>1.009089419236715</v>
+        <v>1.02404468744639</v>
       </c>
       <c r="K5">
-        <v>1.018818619483452</v>
+        <v>1.027284384282853</v>
       </c>
       <c r="L5">
-        <v>1.007012200298093</v>
+        <v>1.023082033227602</v>
       </c>
       <c r="M5">
-        <v>0.9811949843450054</v>
+        <v>1.021604326263554</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9901119312606242</v>
+        <v>1.019579781335644</v>
       </c>
       <c r="D6">
-        <v>1.009212213594444</v>
+        <v>1.024859207058205</v>
       </c>
       <c r="E6">
-        <v>0.9972864932753587</v>
+        <v>1.020652192620172</v>
       </c>
       <c r="F6">
-        <v>0.9713143345572238</v>
+        <v>1.019207206585259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037656372909881</v>
+        <v>1.027218629287371</v>
       </c>
       <c r="J6">
-        <v>1.009232117832795</v>
+        <v>1.024076136824634</v>
       </c>
       <c r="K6">
-        <v>1.01894162388828</v>
+        <v>1.027310466237882</v>
       </c>
       <c r="L6">
-        <v>1.007154508868474</v>
+        <v>1.023114110837523</v>
       </c>
       <c r="M6">
-        <v>0.9814988890070188</v>
+        <v>1.021672807756949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9885515504809355</v>
+        <v>1.019248530751122</v>
       </c>
       <c r="D7">
-        <v>1.008093043538007</v>
+        <v>1.02461863216896</v>
       </c>
       <c r="E7">
-        <v>0.9960282781673709</v>
+        <v>1.020370054495975</v>
       </c>
       <c r="F7">
-        <v>0.9689139414804893</v>
+        <v>1.018673960032807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037337900674059</v>
+        <v>1.027172958029569</v>
       </c>
       <c r="J7">
-        <v>1.008246512988243</v>
+        <v>1.023859816134697</v>
       </c>
       <c r="K7">
-        <v>1.018091795201622</v>
+        <v>1.027131024485271</v>
       </c>
       <c r="L7">
-        <v>1.006171858249457</v>
+        <v>1.022893496317679</v>
       </c>
       <c r="M7">
-        <v>0.979399481573998</v>
+        <v>1.021201840776527</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9818662010800612</v>
+        <v>1.017863306583473</v>
       </c>
       <c r="D8">
-        <v>1.003300679273801</v>
+        <v>1.023611970419874</v>
       </c>
       <c r="E8">
-        <v>0.9906504000395245</v>
+        <v>1.019190961664661</v>
       </c>
       <c r="F8">
-        <v>0.9585997249657887</v>
+        <v>1.016444044597401</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035947425947496</v>
+        <v>1.026978808537782</v>
       </c>
       <c r="J8">
-        <v>1.004013830018853</v>
+        <v>1.022953909851761</v>
       </c>
       <c r="K8">
-        <v>1.014436125620311</v>
+        <v>1.026378560019735</v>
       </c>
       <c r="L8">
-        <v>1.001958524927499</v>
+        <v>1.021970291956028</v>
       </c>
       <c r="M8">
-        <v>0.9703713107695144</v>
+        <v>1.019231351786962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9694072374106959</v>
+        <v>1.01541981036163</v>
       </c>
       <c r="D9">
-        <v>0.9943854237679544</v>
+        <v>1.02183394875675</v>
       </c>
       <c r="E9">
-        <v>0.9806816215610701</v>
+        <v>1.017113956130374</v>
       </c>
       <c r="F9">
-        <v>0.9392248246359349</v>
+        <v>1.012510224125855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033259100141445</v>
+        <v>1.026624434729114</v>
       </c>
       <c r="J9">
-        <v>0.9960885641573073</v>
+        <v>1.02135103634721</v>
       </c>
       <c r="K9">
-        <v>1.007570255140815</v>
+        <v>1.025043441239661</v>
       </c>
       <c r="L9">
-        <v>0.9940961000546326</v>
+        <v>1.020339399011131</v>
       </c>
       <c r="M9">
-        <v>0.9533874213246273</v>
+        <v>1.015751382053041</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9605777480828683</v>
+        <v>1.013788997663064</v>
       </c>
       <c r="D10">
-        <v>0.9880839275982526</v>
+        <v>1.020645788469741</v>
       </c>
       <c r="E10">
-        <v>0.9736573416323641</v>
+        <v>1.015729718600066</v>
       </c>
       <c r="F10">
-        <v>0.9253476454558086</v>
+        <v>1.009884199313228</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031291229653998</v>
+        <v>1.026379940321444</v>
       </c>
       <c r="J10">
-        <v>0.9904477379487031</v>
+        <v>1.020277987655714</v>
       </c>
       <c r="K10">
-        <v>1.002671715853088</v>
+        <v>1.024147158011155</v>
       </c>
       <c r="L10">
-        <v>0.9885190868352794</v>
+        <v>1.019249338982973</v>
       </c>
       <c r="M10">
-        <v>0.941209611890208</v>
+        <v>1.013425777247569</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9566131612919502</v>
+        <v>1.013082384537353</v>
       </c>
       <c r="D11">
-        <v>0.9852597947662539</v>
+        <v>1.020130629594745</v>
       </c>
       <c r="E11">
-        <v>0.9705139113909493</v>
+        <v>1.015130420748529</v>
       </c>
       <c r="F11">
-        <v>0.9190704596778294</v>
+        <v>1.008746164484176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030393479680122</v>
+        <v>1.026272114562841</v>
       </c>
       <c r="J11">
-        <v>0.9879093056191882</v>
+        <v>1.01981227181354</v>
       </c>
       <c r="K11">
-        <v>1.000465148290066</v>
+        <v>1.023757578049253</v>
       </c>
       <c r="L11">
-        <v>0.9860141709877525</v>
+        <v>1.018776655610959</v>
       </c>
       <c r="M11">
-        <v>0.9356989662558852</v>
+        <v>1.012417332953745</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9551176473663572</v>
+        <v>1.012819845721687</v>
       </c>
       <c r="D12">
-        <v>0.9841954106218441</v>
+        <v>1.019939174276089</v>
       </c>
       <c r="E12">
-        <v>0.9693298329554694</v>
+        <v>1.014907826787519</v>
       </c>
       <c r="F12">
-        <v>0.9166945364930522</v>
+        <v>1.008323295421758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030052772586402</v>
+        <v>1.026231768917422</v>
       </c>
       <c r="J12">
-        <v>0.9869509300509268</v>
+        <v>1.019639120807948</v>
       </c>
       <c r="K12">
-        <v>0.9996317974362849</v>
+        <v>1.023612647056569</v>
       </c>
       <c r="L12">
-        <v>0.9850691972303293</v>
+        <v>1.018600976672673</v>
       </c>
       <c r="M12">
-        <v>0.9336129532465648</v>
+        <v>1.012042526721776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9554395045407589</v>
+        <v>1.012876164445788</v>
       </c>
       <c r="D13">
-        <v>0.9844244380446173</v>
+        <v>1.01998024673383</v>
       </c>
       <c r="E13">
-        <v>0.969584587135114</v>
+        <v>1.014955573423391</v>
       </c>
       <c r="F13">
-        <v>0.9172062545740753</v>
+        <v>1.008414009317634</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030126189818166</v>
+        <v>1.026240436518577</v>
       </c>
       <c r="J13">
-        <v>0.9871572244403216</v>
+        <v>1.019676269702652</v>
       </c>
       <c r="K13">
-        <v>0.9998111909397959</v>
+        <v>1.023643745379771</v>
       </c>
       <c r="L13">
-        <v>0.9852725725957379</v>
+        <v>1.018638665093039</v>
       </c>
       <c r="M13">
-        <v>0.9340622400040015</v>
+        <v>1.012122934254481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9564900187985672</v>
+        <v>1.013060684462165</v>
       </c>
       <c r="D14">
-        <v>0.9851721324031065</v>
+        <v>1.020114805930144</v>
       </c>
       <c r="E14">
-        <v>0.9704163782385531</v>
+        <v>1.015112020824417</v>
       </c>
       <c r="F14">
-        <v>0.9188749937607912</v>
+        <v>1.008711213157949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030365466854598</v>
+        <v>1.026268785585074</v>
       </c>
       <c r="J14">
-        <v>0.9878304086395187</v>
+        <v>1.019797962438672</v>
       </c>
       <c r="K14">
-        <v>1.000396548930298</v>
+        <v>1.023745602575131</v>
       </c>
       <c r="L14">
-        <v>0.9859363619520004</v>
+        <v>1.01876213604855</v>
       </c>
       <c r="M14">
-        <v>0.9355273550791091</v>
+        <v>1.012386355995229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9571341896393701</v>
+        <v>1.013174363832497</v>
       </c>
       <c r="D15">
-        <v>0.9856307417139689</v>
+        <v>1.020197698709045</v>
       </c>
       <c r="E15">
-        <v>0.9709266529607323</v>
+        <v>1.015208414784361</v>
       </c>
       <c r="F15">
-        <v>0.9198971608020732</v>
+        <v>1.008894309785883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030511921354715</v>
+        <v>1.026286213369844</v>
       </c>
       <c r="J15">
-        <v>0.9882430928702296</v>
+        <v>1.019872919656319</v>
       </c>
       <c r="K15">
-        <v>1.000755359069262</v>
+        <v>1.023808330495616</v>
       </c>
       <c r="L15">
-        <v>0.9863433860953414</v>
+        <v>1.018838196859618</v>
       </c>
       <c r="M15">
-        <v>0.9364247678492094</v>
+        <v>1.012548628738959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9608377494343326</v>
+        <v>1.013835883372152</v>
       </c>
       <c r="D16">
-        <v>0.9882692583606396</v>
+        <v>1.020679963542554</v>
       </c>
       <c r="E16">
-        <v>0.9738637180068598</v>
+        <v>1.015769493754813</v>
       </c>
       <c r="F16">
-        <v>0.9257582605247936</v>
+        <v>1.009959706119626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031349816738119</v>
+        <v>1.026387055092431</v>
       </c>
       <c r="J16">
-        <v>0.9906140951995485</v>
+        <v>1.020308872841237</v>
       </c>
       <c r="K16">
-        <v>1.002816283816867</v>
+        <v>1.024172981829881</v>
       </c>
       <c r="L16">
-        <v>0.9886833493068053</v>
+        <v>1.01928069499752</v>
       </c>
       <c r="M16">
-        <v>0.9415700479297452</v>
+        <v>1.013492673269974</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9631219378578069</v>
+        <v>1.014250712373064</v>
       </c>
       <c r="D17">
-        <v>0.9898980637696313</v>
+        <v>1.020982293713324</v>
       </c>
       <c r="E17">
-        <v>0.9756780052821451</v>
+        <v>1.016121466131068</v>
       </c>
       <c r="F17">
-        <v>0.9293602916175904</v>
+        <v>1.01062774024205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031862926535319</v>
+        <v>1.026449786084819</v>
       </c>
       <c r="J17">
-        <v>0.9920749588065203</v>
+        <v>1.020582045017059</v>
       </c>
       <c r="K17">
-        <v>1.004085565674498</v>
+        <v>1.02440132027778</v>
       </c>
       <c r="L17">
-        <v>0.9901263637748586</v>
+        <v>1.019558079512635</v>
       </c>
       <c r="M17">
-        <v>0.9447316620077464</v>
+        <v>1.014084455419502</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9644407478968801</v>
+        <v>1.014492630823719</v>
       </c>
       <c r="D18">
-        <v>0.9908389744472402</v>
+        <v>1.021158572445819</v>
       </c>
       <c r="E18">
-        <v>0.9767265043221144</v>
+        <v>1.016326774043065</v>
       </c>
       <c r="F18">
-        <v>0.9314357066141288</v>
+        <v>1.011017302361961</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0321578384662</v>
+        <v>1.026486187099213</v>
       </c>
       <c r="J18">
-        <v>0.9929178801903271</v>
+        <v>1.020741277741338</v>
       </c>
       <c r="K18">
-        <v>1.004817735258297</v>
+        <v>1.024534363158259</v>
       </c>
       <c r="L18">
-        <v>0.9909594368151391</v>
+        <v>1.019719807654928</v>
       </c>
       <c r="M18">
-        <v>0.9465531089333236</v>
+        <v>1.014429493371646</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9648881823457847</v>
+        <v>1.014575111313388</v>
       </c>
       <c r="D19">
-        <v>0.9911582789191064</v>
+        <v>1.021218667871703</v>
       </c>
       <c r="E19">
-        <v>0.9770823959326767</v>
+        <v>1.016396780186255</v>
       </c>
       <c r="F19">
-        <v>0.9321391419892129</v>
+        <v>1.011150117855384</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032257664499267</v>
+        <v>1.026498566866866</v>
       </c>
       <c r="J19">
-        <v>0.9932037690336909</v>
+        <v>1.020795554388035</v>
       </c>
       <c r="K19">
-        <v>1.005066024026815</v>
+        <v>1.024579703097855</v>
       </c>
       <c r="L19">
-        <v>0.9912420611591687</v>
+        <v>1.019774941685838</v>
       </c>
       <c r="M19">
-        <v>0.9471704269643597</v>
+        <v>1.014547119149053</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9628782756945321</v>
+        <v>1.014206209743933</v>
       </c>
       <c r="D20">
-        <v>0.9897242611918322</v>
+        <v>1.020949863310586</v>
       </c>
       <c r="E20">
-        <v>0.9754843653022545</v>
+        <v>1.016083701967358</v>
       </c>
       <c r="F20">
-        <v>0.9289765017101906</v>
+        <v>1.010556075975648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031808330017164</v>
+        <v>1.026443075184663</v>
       </c>
       <c r="J20">
-        <v>0.9919191784498846</v>
+        <v>1.020552746993917</v>
       </c>
       <c r="K20">
-        <v>1.003950236082189</v>
+        <v>1.024376836528303</v>
       </c>
       <c r="L20">
-        <v>0.9899724397901603</v>
+        <v>1.019528325568332</v>
       </c>
       <c r="M20">
-        <v>0.9443948188127314</v>
+        <v>1.014020977190884</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9561813145976952</v>
+        <v>1.013006349899533</v>
       </c>
       <c r="D21">
-        <v>0.9849523882578928</v>
+        <v>1.020075184431324</v>
       </c>
       <c r="E21">
-        <v>0.9701719010954424</v>
+        <v>1.0150659506425</v>
       </c>
       <c r="F21">
-        <v>0.9183848492200287</v>
+        <v>1.008623698315916</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030295208974487</v>
+        <v>1.026260445618759</v>
       </c>
       <c r="J21">
-        <v>0.9876326095214347</v>
+        <v>1.019762131482711</v>
       </c>
       <c r="K21">
-        <v>1.000224562381849</v>
+        <v>1.023715614349976</v>
       </c>
       <c r="L21">
-        <v>0.9857413024987427</v>
+        <v>1.018725779789709</v>
       </c>
       <c r="M21">
-        <v>0.9350970246914893</v>
+        <v>1.012308791140859</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9518372772288949</v>
+        <v>1.012251537196672</v>
       </c>
       <c r="D22">
-        <v>0.9818625726056334</v>
+        <v>1.019524646500894</v>
       </c>
       <c r="E22">
-        <v>0.9667357875364819</v>
+        <v>1.014426118595012</v>
       </c>
       <c r="F22">
-        <v>0.9114667800418613</v>
+        <v>1.007407850025688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029301721541448</v>
+        <v>1.026143916006149</v>
       </c>
       <c r="J22">
-        <v>0.9848472312975602</v>
+        <v>1.019264094038661</v>
       </c>
       <c r="K22">
-        <v>0.997802106463676</v>
+        <v>1.023298583362464</v>
       </c>
       <c r="L22">
-        <v>0.9829963269750914</v>
+        <v>1.018220589261873</v>
       </c>
       <c r="M22">
-        <v>0.9290227892038404</v>
+        <v>1.011230965108877</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9541533790982176</v>
+        <v>1.01265171755005</v>
       </c>
       <c r="D23">
-        <v>0.983509402233242</v>
+        <v>1.019816553440379</v>
       </c>
       <c r="E23">
-        <v>0.9685668554479941</v>
+        <v>1.014765299503109</v>
       </c>
       <c r="F23">
-        <v>0.9151601776472545</v>
+        <v>1.008052481429773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029832521487452</v>
+        <v>1.026205852059711</v>
       </c>
       <c r="J23">
-        <v>0.9863327606306842</v>
+        <v>1.019528203243208</v>
       </c>
       <c r="K23">
-        <v>0.9990942027126252</v>
+        <v>1.02351978233495</v>
       </c>
       <c r="L23">
-        <v>0.9844598866392295</v>
+        <v>1.018488457386481</v>
       </c>
       <c r="M23">
-        <v>0.9322657663493283</v>
+        <v>1.011802467783703</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.962988417791845</v>
+        <v>1.014226318703305</v>
       </c>
       <c r="D24">
-        <v>0.9898028232780101</v>
+        <v>1.020964517415652</v>
       </c>
       <c r="E24">
-        <v>0.9755718929004407</v>
+        <v>1.016100765941605</v>
       </c>
       <c r="F24">
-        <v>0.9291499986310016</v>
+        <v>1.010588458252884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031833013329402</v>
+        <v>1.026446108135329</v>
       </c>
       <c r="J24">
-        <v>0.9919895971635055</v>
+        <v>1.020565985830769</v>
       </c>
       <c r="K24">
-        <v>1.004011410915839</v>
+        <v>1.024387900122936</v>
       </c>
       <c r="L24">
-        <v>0.9900420179552267</v>
+        <v>1.019541770297612</v>
       </c>
       <c r="M24">
-        <v>0.9445470935543756</v>
+        <v>1.014049660697454</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9727151230116909</v>
+        <v>1.016051825427843</v>
       </c>
       <c r="D25">
-        <v>0.9967500340756725</v>
+        <v>1.022294104261442</v>
       </c>
       <c r="E25">
-        <v>0.9833217358514049</v>
+        <v>1.017650832406737</v>
       </c>
       <c r="F25">
-        <v>0.9443906612431524</v>
+        <v>1.0135277869713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033983823834939</v>
+        <v>1.026717501823305</v>
       </c>
       <c r="J25">
-        <v>0.9981969627000145</v>
+        <v>1.021766200210451</v>
       </c>
       <c r="K25">
-        <v>1.00939901195673</v>
+        <v>1.025389692579326</v>
       </c>
       <c r="L25">
-        <v>0.9961845983323616</v>
+        <v>1.020761513477644</v>
       </c>
       <c r="M25">
-        <v>0.9579182851711667</v>
+        <v>1.016651996916855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_228/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017506523434188</v>
+        <v>0.98010132996515</v>
       </c>
       <c r="D2">
-        <v>1.02335253314526</v>
+        <v>1.002036396983333</v>
       </c>
       <c r="E2">
-        <v>1.018887464434443</v>
+        <v>0.9892340999079977</v>
       </c>
       <c r="F2">
-        <v>1.015869691325769</v>
+        <v>0.9558680625357422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026927994660535</v>
+        <v>1.035573819636897</v>
       </c>
       <c r="J2">
-        <v>1.022720250132159</v>
+        <v>1.002893944676484</v>
       </c>
       <c r="K2">
-        <v>1.026184222918567</v>
+        <v>1.013467434280263</v>
       </c>
       <c r="L2">
-        <v>1.021732345631859</v>
+        <v>1.000845486790114</v>
       </c>
       <c r="M2">
-        <v>1.018723559631315</v>
+        <v>0.9679784998280133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018562034851111</v>
+        <v>0.9852711057561153</v>
       </c>
       <c r="D3">
-        <v>1.024119870061698</v>
+        <v>1.005740881507756</v>
       </c>
       <c r="E3">
-        <v>1.019785563326101</v>
+        <v>0.9933868186358368</v>
       </c>
       <c r="F3">
-        <v>1.017568849712941</v>
+        <v>0.9638591585511067</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027077371256606</v>
+        <v>1.036660687201579</v>
       </c>
       <c r="J3">
-        <v>1.023411121460803</v>
+        <v>1.006171510643709</v>
       </c>
       <c r="K3">
-        <v>1.026758528330028</v>
+        <v>1.016300829916325</v>
       </c>
       <c r="L3">
-        <v>1.022436097497875</v>
+        <v>1.004105021579176</v>
       </c>
       <c r="M3">
-        <v>1.020225499997718</v>
+        <v>0.9749763519539784</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019244696683664</v>
+        <v>0.9885334047243618</v>
       </c>
       <c r="D4">
-        <v>1.024615847283845</v>
+        <v>1.008080029830721</v>
       </c>
       <c r="E4">
-        <v>1.020366789292499</v>
+        <v>0.9960136530910071</v>
       </c>
       <c r="F4">
-        <v>1.018667787984145</v>
+        <v>0.9688860125629495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027172427672561</v>
+        <v>1.037334182954321</v>
       </c>
       <c r="J4">
-        <v>1.023857311615084</v>
+        <v>1.008235045919799</v>
       </c>
       <c r="K4">
-        <v>1.027128946393864</v>
+        <v>1.018081904443079</v>
       </c>
       <c r="L4">
-        <v>1.022890942459054</v>
+        <v>1.006160429111285</v>
       </c>
       <c r="M4">
-        <v>1.021196389025617</v>
+        <v>0.9793750506224291</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019531611501204</v>
+        <v>0.9898859238480041</v>
       </c>
       <c r="D5">
-        <v>1.024824226797496</v>
+        <v>1.00905009962099</v>
       </c>
       <c r="E5">
-        <v>1.020611160259838</v>
+        <v>0.9971041803125742</v>
       </c>
       <c r="F5">
-        <v>1.019129662561586</v>
+        <v>0.9709668106132447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027212006320759</v>
+        <v>1.03761039592161</v>
       </c>
       <c r="J5">
-        <v>1.02404468744639</v>
+        <v>1.009089419236715</v>
       </c>
       <c r="K5">
-        <v>1.027284384282853</v>
+        <v>1.018818619483453</v>
       </c>
       <c r="L5">
-        <v>1.023082033227602</v>
+        <v>1.007012200298093</v>
       </c>
       <c r="M5">
-        <v>1.021604326263554</v>
+        <v>0.9811949843450053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019579781335644</v>
+        <v>0.990111931260624</v>
       </c>
       <c r="D6">
-        <v>1.024859207058205</v>
+        <v>1.009212213594444</v>
       </c>
       <c r="E6">
-        <v>1.020652192620172</v>
+        <v>0.9972864932753581</v>
       </c>
       <c r="F6">
-        <v>1.019207206585259</v>
+        <v>0.971314334557223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027218629287371</v>
+        <v>1.037656372909881</v>
       </c>
       <c r="J6">
-        <v>1.024076136824634</v>
+        <v>1.009232117832795</v>
       </c>
       <c r="K6">
-        <v>1.027310466237882</v>
+        <v>1.01894162388828</v>
       </c>
       <c r="L6">
-        <v>1.023114110837523</v>
+        <v>1.007154508868473</v>
       </c>
       <c r="M6">
-        <v>1.021672807756949</v>
+        <v>0.9814988890070181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019248530751122</v>
+        <v>0.9885515504809348</v>
       </c>
       <c r="D7">
-        <v>1.02461863216896</v>
+        <v>1.008093043538007</v>
       </c>
       <c r="E7">
-        <v>1.020370054495975</v>
+        <v>0.9960282781673701</v>
       </c>
       <c r="F7">
-        <v>1.018673960032807</v>
+        <v>0.9689139414804884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027172958029569</v>
+        <v>1.037337900674059</v>
       </c>
       <c r="J7">
-        <v>1.023859816134697</v>
+        <v>1.008246512988243</v>
       </c>
       <c r="K7">
-        <v>1.027131024485271</v>
+        <v>1.018091795201622</v>
       </c>
       <c r="L7">
-        <v>1.022893496317679</v>
+        <v>1.006171858249456</v>
       </c>
       <c r="M7">
-        <v>1.021201840776527</v>
+        <v>0.9793994815739971</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017863306583473</v>
+        <v>0.981866201080061</v>
       </c>
       <c r="D8">
-        <v>1.023611970419874</v>
+        <v>1.003300679273801</v>
       </c>
       <c r="E8">
-        <v>1.019190961664661</v>
+        <v>0.9906504000395242</v>
       </c>
       <c r="F8">
-        <v>1.016444044597401</v>
+        <v>0.9585997249657884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026978808537782</v>
+        <v>1.035947425947496</v>
       </c>
       <c r="J8">
-        <v>1.022953909851761</v>
+        <v>1.004013830018852</v>
       </c>
       <c r="K8">
-        <v>1.026378560019735</v>
+        <v>1.014436125620311</v>
       </c>
       <c r="L8">
-        <v>1.021970291956028</v>
+        <v>1.001958524927499</v>
       </c>
       <c r="M8">
-        <v>1.019231351786962</v>
+        <v>0.970371310769514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01541981036163</v>
+        <v>0.9694072374106955</v>
       </c>
       <c r="D9">
-        <v>1.02183394875675</v>
+        <v>0.994385423767954</v>
       </c>
       <c r="E9">
-        <v>1.017113956130374</v>
+        <v>0.9806816215610695</v>
       </c>
       <c r="F9">
-        <v>1.012510224125855</v>
+        <v>0.9392248246359342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026624434729114</v>
+        <v>1.033259100141445</v>
       </c>
       <c r="J9">
-        <v>1.02135103634721</v>
+        <v>0.9960885641573068</v>
       </c>
       <c r="K9">
-        <v>1.025043441239661</v>
+        <v>1.007570255140815</v>
       </c>
       <c r="L9">
-        <v>1.020339399011131</v>
+        <v>0.994096100054632</v>
       </c>
       <c r="M9">
-        <v>1.015751382053041</v>
+        <v>0.9533874213246266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013788997663064</v>
+        <v>0.9605777480828687</v>
       </c>
       <c r="D10">
-        <v>1.020645788469741</v>
+        <v>0.9880839275982531</v>
       </c>
       <c r="E10">
-        <v>1.015729718600066</v>
+        <v>0.9736573416323644</v>
       </c>
       <c r="F10">
-        <v>1.009884199313228</v>
+        <v>0.9253476454558093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026379940321444</v>
+        <v>1.031291229653998</v>
       </c>
       <c r="J10">
-        <v>1.020277987655714</v>
+        <v>0.9904477379487034</v>
       </c>
       <c r="K10">
-        <v>1.024147158011155</v>
+        <v>1.002671715853088</v>
       </c>
       <c r="L10">
-        <v>1.019249338982973</v>
+        <v>0.9885190868352798</v>
       </c>
       <c r="M10">
-        <v>1.013425777247569</v>
+        <v>0.9412096118902089</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013082384537353</v>
+        <v>0.95661316129195</v>
       </c>
       <c r="D11">
-        <v>1.020130629594745</v>
+        <v>0.9852597947662535</v>
       </c>
       <c r="E11">
-        <v>1.015130420748529</v>
+        <v>0.970513911390949</v>
       </c>
       <c r="F11">
-        <v>1.008746164484176</v>
+        <v>0.9190704596778294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026272114562841</v>
+        <v>1.030393479680122</v>
       </c>
       <c r="J11">
-        <v>1.01981227181354</v>
+        <v>0.9879093056191879</v>
       </c>
       <c r="K11">
-        <v>1.023757578049253</v>
+        <v>1.000465148290065</v>
       </c>
       <c r="L11">
-        <v>1.018776655610959</v>
+        <v>0.9860141709877522</v>
       </c>
       <c r="M11">
-        <v>1.012417332953745</v>
+        <v>0.9356989662558852</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012819845721687</v>
+        <v>0.9551176473663566</v>
       </c>
       <c r="D12">
-        <v>1.019939174276089</v>
+        <v>0.984195410621844</v>
       </c>
       <c r="E12">
-        <v>1.014907826787519</v>
+        <v>0.9693298329554688</v>
       </c>
       <c r="F12">
-        <v>1.008323295421758</v>
+        <v>0.9166945364930517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026231768917422</v>
+        <v>1.030052772586402</v>
       </c>
       <c r="J12">
-        <v>1.019639120807948</v>
+        <v>0.9869509300509264</v>
       </c>
       <c r="K12">
-        <v>1.023612647056569</v>
+        <v>0.9996317974362847</v>
       </c>
       <c r="L12">
-        <v>1.018600976672673</v>
+        <v>0.9850691972303287</v>
       </c>
       <c r="M12">
-        <v>1.012042526721776</v>
+        <v>0.9336129532465641</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012876164445788</v>
+        <v>0.9554395045407572</v>
       </c>
       <c r="D13">
-        <v>1.01998024673383</v>
+        <v>0.984424438044616</v>
       </c>
       <c r="E13">
-        <v>1.014955573423391</v>
+        <v>0.9695845871351124</v>
       </c>
       <c r="F13">
-        <v>1.008414009317634</v>
+        <v>0.9172062545740729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026240436518577</v>
+        <v>1.030126189818166</v>
       </c>
       <c r="J13">
-        <v>1.019676269702652</v>
+        <v>0.9871572244403202</v>
       </c>
       <c r="K13">
-        <v>1.023643745379771</v>
+        <v>0.9998111909397946</v>
       </c>
       <c r="L13">
-        <v>1.018638665093039</v>
+        <v>0.9852725725957364</v>
       </c>
       <c r="M13">
-        <v>1.012122934254481</v>
+        <v>0.9340622400039991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013060684462165</v>
+        <v>0.9564900187985672</v>
       </c>
       <c r="D14">
-        <v>1.020114805930144</v>
+        <v>0.9851721324031065</v>
       </c>
       <c r="E14">
-        <v>1.015112020824417</v>
+        <v>0.9704163782385531</v>
       </c>
       <c r="F14">
-        <v>1.008711213157949</v>
+        <v>0.9188749937607913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026268785585074</v>
+        <v>1.030365466854598</v>
       </c>
       <c r="J14">
-        <v>1.019797962438672</v>
+        <v>0.987830408639519</v>
       </c>
       <c r="K14">
-        <v>1.023745602575131</v>
+        <v>1.000396548930298</v>
       </c>
       <c r="L14">
-        <v>1.01876213604855</v>
+        <v>0.9859363619520003</v>
       </c>
       <c r="M14">
-        <v>1.012386355995229</v>
+        <v>0.9355273550791091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013174363832497</v>
+        <v>0.9571341896393704</v>
       </c>
       <c r="D15">
-        <v>1.020197698709045</v>
+        <v>0.9856307417139689</v>
       </c>
       <c r="E15">
-        <v>1.015208414784361</v>
+        <v>0.9709266529607324</v>
       </c>
       <c r="F15">
-        <v>1.008894309785883</v>
+        <v>0.919897160802074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026286213369844</v>
+        <v>1.030511921354715</v>
       </c>
       <c r="J15">
-        <v>1.019872919656319</v>
+        <v>0.9882430928702298</v>
       </c>
       <c r="K15">
-        <v>1.023808330495616</v>
+        <v>1.000755359069262</v>
       </c>
       <c r="L15">
-        <v>1.018838196859618</v>
+        <v>0.9863433860953417</v>
       </c>
       <c r="M15">
-        <v>1.012548628738959</v>
+        <v>0.9364247678492099</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013835883372152</v>
+        <v>0.9608377494343324</v>
       </c>
       <c r="D16">
-        <v>1.020679963542554</v>
+        <v>0.9882692583606395</v>
       </c>
       <c r="E16">
-        <v>1.015769493754813</v>
+        <v>0.9738637180068596</v>
       </c>
       <c r="F16">
-        <v>1.009959706119626</v>
+        <v>0.9257582605247939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026387055092431</v>
+        <v>1.031349816738119</v>
       </c>
       <c r="J16">
-        <v>1.020308872841237</v>
+        <v>0.9906140951995485</v>
       </c>
       <c r="K16">
-        <v>1.024172981829881</v>
+        <v>1.002816283816867</v>
       </c>
       <c r="L16">
-        <v>1.01928069499752</v>
+        <v>0.9886833493068052</v>
       </c>
       <c r="M16">
-        <v>1.013492673269974</v>
+        <v>0.9415700479297454</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014250712373064</v>
+        <v>0.9631219378578069</v>
       </c>
       <c r="D17">
-        <v>1.020982293713324</v>
+        <v>0.9898980637696312</v>
       </c>
       <c r="E17">
-        <v>1.016121466131068</v>
+        <v>0.9756780052821451</v>
       </c>
       <c r="F17">
-        <v>1.01062774024205</v>
+        <v>0.9293602916175902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026449786084819</v>
+        <v>1.031862926535319</v>
       </c>
       <c r="J17">
-        <v>1.020582045017059</v>
+        <v>0.9920749588065203</v>
       </c>
       <c r="K17">
-        <v>1.02440132027778</v>
+        <v>1.004085565674497</v>
       </c>
       <c r="L17">
-        <v>1.019558079512635</v>
+        <v>0.9901263637748586</v>
       </c>
       <c r="M17">
-        <v>1.014084455419502</v>
+        <v>0.9447316620077459</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014492630823719</v>
+        <v>0.9644407478968795</v>
       </c>
       <c r="D18">
-        <v>1.021158572445819</v>
+        <v>0.9908389744472393</v>
       </c>
       <c r="E18">
-        <v>1.016326774043065</v>
+        <v>0.9767265043221136</v>
       </c>
       <c r="F18">
-        <v>1.011017302361961</v>
+        <v>0.9314357066141286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026486187099213</v>
+        <v>1.0321578384662</v>
       </c>
       <c r="J18">
-        <v>1.020741277741338</v>
+        <v>0.9929178801903266</v>
       </c>
       <c r="K18">
-        <v>1.024534363158259</v>
+        <v>1.004817735258296</v>
       </c>
       <c r="L18">
-        <v>1.019719807654928</v>
+        <v>0.9909594368151383</v>
       </c>
       <c r="M18">
-        <v>1.014429493371646</v>
+        <v>0.9465531089333232</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014575111313388</v>
+        <v>0.9648881823457849</v>
       </c>
       <c r="D19">
-        <v>1.021218667871703</v>
+        <v>0.9911582789191066</v>
       </c>
       <c r="E19">
-        <v>1.016396780186255</v>
+        <v>0.9770823959326765</v>
       </c>
       <c r="F19">
-        <v>1.011150117855384</v>
+        <v>0.9321391419892135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026498566866866</v>
+        <v>1.032257664499267</v>
       </c>
       <c r="J19">
-        <v>1.020795554388035</v>
+        <v>0.993203769033691</v>
       </c>
       <c r="K19">
-        <v>1.024579703097855</v>
+        <v>1.005066024026815</v>
       </c>
       <c r="L19">
-        <v>1.019774941685838</v>
+        <v>0.9912420611591686</v>
       </c>
       <c r="M19">
-        <v>1.014547119149053</v>
+        <v>0.9471704269643603</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014206209743933</v>
+        <v>0.9628782756945317</v>
       </c>
       <c r="D20">
-        <v>1.020949863310586</v>
+        <v>0.9897242611918317</v>
       </c>
       <c r="E20">
-        <v>1.016083701967358</v>
+        <v>0.9754843653022541</v>
       </c>
       <c r="F20">
-        <v>1.010556075975648</v>
+        <v>0.9289765017101898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026443075184663</v>
+        <v>1.031808330017164</v>
       </c>
       <c r="J20">
-        <v>1.020552746993917</v>
+        <v>0.9919191784498841</v>
       </c>
       <c r="K20">
-        <v>1.024376836528303</v>
+        <v>1.003950236082188</v>
       </c>
       <c r="L20">
-        <v>1.019528325568332</v>
+        <v>0.9899724397901599</v>
       </c>
       <c r="M20">
-        <v>1.014020977190884</v>
+        <v>0.9443948188127305</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013006349899533</v>
+        <v>0.956181314597694</v>
       </c>
       <c r="D21">
-        <v>1.020075184431324</v>
+        <v>0.9849523882578918</v>
       </c>
       <c r="E21">
-        <v>1.0150659506425</v>
+        <v>0.9701719010954414</v>
       </c>
       <c r="F21">
-        <v>1.008623698315916</v>
+        <v>0.9183848492200274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026260445618759</v>
+        <v>1.030295208974486</v>
       </c>
       <c r="J21">
-        <v>1.019762131482711</v>
+        <v>0.9876326095214338</v>
       </c>
       <c r="K21">
-        <v>1.023715614349976</v>
+        <v>1.000224562381848</v>
       </c>
       <c r="L21">
-        <v>1.018725779789709</v>
+        <v>0.9857413024987418</v>
       </c>
       <c r="M21">
-        <v>1.012308791140859</v>
+        <v>0.9350970246914884</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012251537196672</v>
+        <v>0.951837277228895</v>
       </c>
       <c r="D22">
-        <v>1.019524646500894</v>
+        <v>0.9818625726056336</v>
       </c>
       <c r="E22">
-        <v>1.014426118595012</v>
+        <v>0.9667357875364823</v>
       </c>
       <c r="F22">
-        <v>1.007407850025688</v>
+        <v>0.9114667800418612</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026143916006149</v>
+        <v>1.029301721541448</v>
       </c>
       <c r="J22">
-        <v>1.019264094038661</v>
+        <v>0.9848472312975605</v>
       </c>
       <c r="K22">
-        <v>1.023298583362464</v>
+        <v>0.9978021064636762</v>
       </c>
       <c r="L22">
-        <v>1.018220589261873</v>
+        <v>0.9829963269750918</v>
       </c>
       <c r="M22">
-        <v>1.011230965108877</v>
+        <v>0.9290227892038402</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01265171755005</v>
+        <v>0.9541533790982176</v>
       </c>
       <c r="D23">
-        <v>1.019816553440379</v>
+        <v>0.9835094022332422</v>
       </c>
       <c r="E23">
-        <v>1.014765299503109</v>
+        <v>0.968566855447994</v>
       </c>
       <c r="F23">
-        <v>1.008052481429773</v>
+        <v>0.9151601776472547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026205852059711</v>
+        <v>1.029832521487452</v>
       </c>
       <c r="J23">
-        <v>1.019528203243208</v>
+        <v>0.9863327606306845</v>
       </c>
       <c r="K23">
-        <v>1.02351978233495</v>
+        <v>0.9990942027126255</v>
       </c>
       <c r="L23">
-        <v>1.018488457386481</v>
+        <v>0.9844598866392295</v>
       </c>
       <c r="M23">
-        <v>1.011802467783703</v>
+        <v>0.9322657663493285</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014226318703305</v>
+        <v>0.9629884177918434</v>
       </c>
       <c r="D24">
-        <v>1.020964517415652</v>
+        <v>0.9898028232780088</v>
       </c>
       <c r="E24">
-        <v>1.016100765941605</v>
+        <v>0.9755718929004394</v>
       </c>
       <c r="F24">
-        <v>1.010588458252884</v>
+        <v>0.9291499986309997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026446108135329</v>
+        <v>1.031833013329401</v>
       </c>
       <c r="J24">
-        <v>1.020565985830769</v>
+        <v>0.9919895971635042</v>
       </c>
       <c r="K24">
-        <v>1.024387900122936</v>
+        <v>1.004011410915838</v>
       </c>
       <c r="L24">
-        <v>1.019541770297612</v>
+        <v>0.9900420179552254</v>
       </c>
       <c r="M24">
-        <v>1.014049660697454</v>
+        <v>0.9445470935543739</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016051825427843</v>
+        <v>0.9727151230116903</v>
       </c>
       <c r="D25">
-        <v>1.022294104261442</v>
+        <v>0.9967500340756721</v>
       </c>
       <c r="E25">
-        <v>1.017650832406737</v>
+        <v>0.9833217358514046</v>
       </c>
       <c r="F25">
-        <v>1.0135277869713</v>
+        <v>0.944390661243152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026717501823305</v>
+        <v>1.033983823834939</v>
       </c>
       <c r="J25">
-        <v>1.021766200210451</v>
+        <v>0.9981969627000141</v>
       </c>
       <c r="K25">
-        <v>1.025389692579326</v>
+        <v>1.009399011956729</v>
       </c>
       <c r="L25">
-        <v>1.020761513477644</v>
+        <v>0.9961845983323612</v>
       </c>
       <c r="M25">
-        <v>1.016651996916855</v>
+        <v>0.9579182851711663</v>
       </c>
     </row>
   </sheetData>
